--- a/data/D_ÓRGANOS DE LÍNEA DEL VICERRECTORADO DE INVESTIGACIÓN.xlsx
+++ b/data/D_ÓRGANOS DE LÍNEA DEL VICERRECTORADO DE INVESTIGACIÓN.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\directorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{930AAE3D-A3AC-4115-B533-DE31722399FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F7D37-7BF0-4EAB-910F-7747FBA627F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{17492739-476B-483C-851A-F1992C3714CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{408EEB7B-C41A-449F-A4CA-0DD97E9D79DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="ÓRGANOS DE LÍNEA DEL VICER" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>APELLIDOS Y NOMBRES</t>
   </si>
@@ -72,22 +72,25 @@
     <t>ragutierrezt@unac.edu.pe</t>
   </si>
   <si>
-    <t>NARCISO GÓMEZ KENNEDY</t>
+    <t>ROCHA FERNÁNDEZ VÍCTOR EDGARDO</t>
   </si>
   <si>
     <t>Director - DIRECCIÓN DE INCUBADORA DE EMPRESAS</t>
   </si>
   <si>
+    <t>332-2024-R.</t>
+  </si>
+  <si>
+    <t>verochaf@unac.edu.pe</t>
+  </si>
+  <si>
+    <t>RUBIÑOS JIMENEZ SANTIAGO LINDER</t>
+  </si>
+  <si>
+    <t>Director - DIRECCIÓN DEL INSTITUTO DE INVESTIGACIÓN</t>
+  </si>
+  <si>
     <t>039-2024-R.</t>
-  </si>
-  <si>
-    <t>knarcisog@unac.edu.pe</t>
-  </si>
-  <si>
-    <t>RUBIÑOS JIMENEZ SANTIAGO LINDER</t>
-  </si>
-  <si>
-    <t>Director - DIRECCIÓN DEL INSTITUTO DE INVESTIGACIÓN</t>
   </si>
   <si>
     <t>TIRADO MENDOZA GABRIEL AUGUSTO</t>
@@ -249,7 +252,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -317,54 +320,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -391,6 +346,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -398,6 +366,41 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -445,70 +448,70 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -549,18 +552,46 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Montserrat SemiBold"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEBDE14"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="8"/>
         <color rgb="FF000000"/>
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -593,12 +624,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -674,12 +699,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -754,12 +773,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -794,12 +807,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -834,12 +841,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -877,40 +878,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Montserrat SemiBold"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEBDE14"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -927,19 +894,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60E06C7E-231F-4142-85EB-79C6AFABBE53}" name="Tabla7" displayName="Tabla7" ref="A1:H15" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="A1:H15" xr:uid="{1107C357-3511-4EF4-8BBF-9FA7CAA35E53}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A18DB4C1-A6F9-4E57-814E-8B7AE9738668}" name="Tabla1" displayName="Tabla1" ref="A1:H15" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="A1:H15" xr:uid="{A18DB4C1-A6F9-4E57-814E-8B7AE9738668}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EB8CBC20-1CF0-4E1C-B433-ED95240451DA}" name="APELLIDOS Y NOMBRES" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{A4848681-5BEC-4754-8F53-97C3770CCDD5}" name="CARGO" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{BDE68979-9483-4B4E-A321-DAA031116705}" name="SIGLA" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{F1CDB8DB-32FD-4BC4-B176-90C2FC6F8C23}" name="RESOL." dataDxfId="4" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="5" xr3:uid="{CB9652E3-D5BA-4AE4-842A-75AE81F8C630}" name="TELF. FIJO" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{4B6933BE-44AB-4FC1-AACA-FE819029E963}" name="CORREO INSTITUCIONAL" dataDxfId="2" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="7" xr3:uid="{BEF9FF8C-16B9-40A5-ACC3-F8DC897D906D}" name="CORREOS GENERAL" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{D0D41F5F-4989-42D5-981B-1E2822A55066}" name="ANEXO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{89F6F815-08CF-4811-B0D4-579232C1D7FD}" name="APELLIDOS Y NOMBRES" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{DC243A2B-D109-46A4-8DD8-A498428916B3}" name="CARGO" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{162C7410-D23A-4112-91EE-6CF681C9C12A}" name="SIGLA" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{9D8B7EA8-ED7C-494C-8F7B-4E6CE04FA63A}" name="RESOL." dataDxfId="5" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="5" xr3:uid="{8F785DD3-85E3-4D68-8CA8-32110510500D}" name="TELF. FIJO" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{09EAEA8A-D63C-4409-B797-408535BAF830}" name="CORREO INSTITUCIONAL" dataDxfId="3" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="7" xr3:uid="{D0E5B88C-1B56-4377-A668-F06B32067897}" name="CORREOS GENERAL" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{9854FB15-EAD1-4909-B05C-C5C60F94B83D}" name="ANEXO" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1239,376 +1206,373 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C5E06D-7372-4C5B-89EB-A9AC27FB4E6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AEE0EA-1E94-4F38-8208-372F1306279A}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="12" style="4"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="12" style="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="38.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="56.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="78.75">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="17"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" ht="78.75">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="17"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="101.25">
-      <c r="A5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="21">
+      <c r="G5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="19">
         <v>1138</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5">
-      <c r="A6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="21">
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="19">
         <v>1030</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="101.25">
-      <c r="A7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="21">
+      <c r="G7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="19">
         <v>1032</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="90">
-      <c r="A8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="17"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="90">
-      <c r="A9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="21"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" ht="90">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="C10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="21"/>
+      <c r="F10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" ht="135">
-      <c r="A11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="21"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" ht="78.75">
-      <c r="A12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="21"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" ht="90">
-      <c r="A13" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="21">
+      <c r="G13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="19">
         <v>1034</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="101.25">
-      <c r="A14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="21">
+      <c r="E14" s="13"/>
+      <c r="F14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="19">
         <v>1160</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="67.5">
       <c r="A15" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H15" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{3204F767-5329-4D19-BEEB-5452E53F17BB}"/>
-    <hyperlink ref="G5" r:id="rId2" display="mailto:icicyt@unac.edu.pe" xr:uid="{DEF2A93D-5A33-471D-B162-C218A6D6F411}"/>
-    <hyperlink ref="G7" r:id="rId3" display="mailto:patente.vri@unac.edu.pe" xr:uid="{A3F3497B-E278-486B-BE2A-E2D4C0440D08}"/>
-    <hyperlink ref="G13" r:id="rId4" xr:uid="{A6CE5198-6EA6-4494-A2D2-F194A225A620}"/>
-    <hyperlink ref="G15" r:id="rId5" xr:uid="{F33DE3F4-7337-4808-825B-1E7415052FB9}"/>
-    <hyperlink ref="F2" r:id="rId6" xr:uid="{90B4CBAC-3DA1-434F-B942-62D96A2E378C}"/>
-    <hyperlink ref="F3" r:id="rId7" xr:uid="{51338CBA-0401-4A4A-AD1D-18451A8A598A}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{E7D253CE-C8F1-4A4D-BFCC-B863D24BD017}"/>
-    <hyperlink ref="F5" r:id="rId9" xr:uid="{1F42B2BB-0F0C-410E-8073-3C860D2D73CA}"/>
-    <hyperlink ref="F6" r:id="rId10" xr:uid="{C4A4F720-740A-4C2E-BC8D-448CFC273856}"/>
-    <hyperlink ref="F7" r:id="rId11" xr:uid="{B7C72AFC-1BF5-4CD8-8417-6CF9E79B44BB}"/>
-    <hyperlink ref="F8" r:id="rId12" xr:uid="{ACAE4E3C-0570-4A32-8F50-5ACC2C1C036C}"/>
-    <hyperlink ref="F9" r:id="rId13" xr:uid="{A88B530F-7178-42F0-A381-F0BEA36102E7}"/>
-    <hyperlink ref="F11" r:id="rId14" xr:uid="{35EE7D6D-775B-4524-A9AA-211808B75B5B}"/>
-    <hyperlink ref="F12" r:id="rId15" xr:uid="{9EDB635D-22FE-48CC-8E85-980B289C6D5B}"/>
-    <hyperlink ref="F13" r:id="rId16" xr:uid="{E3C4D4DB-5FD8-43CC-BEF2-03000A122F9A}"/>
-    <hyperlink ref="F14" r:id="rId17" xr:uid="{36AC811D-21D2-419D-9B94-984FA19128EA}"/>
-    <hyperlink ref="F15" r:id="rId18" xr:uid="{E0705CD9-8A76-43FD-8F40-0FEAC2F79C1C}"/>
-    <hyperlink ref="D2" r:id="rId19" xr:uid="{6ECC49D3-9D79-43D3-84A6-9AA4BD26351B}"/>
-    <hyperlink ref="D5" r:id="rId20" xr:uid="{319D1085-A057-4237-9420-2171712C5E9B}"/>
-    <hyperlink ref="D6" r:id="rId21" xr:uid="{0AED29C3-C407-41CD-95A5-91FBBDF2B2F5}"/>
-    <hyperlink ref="D9" r:id="rId22" xr:uid="{9C945CA1-5D93-46EF-8F10-3804853CBB96}"/>
-    <hyperlink ref="D11" r:id="rId23" xr:uid="{677A3A9C-B913-4BF7-BA44-E9FC0B5175CD}"/>
-    <hyperlink ref="D12" r:id="rId24" xr:uid="{BCB67E4C-2482-4E34-A8BE-7B9C8F292221}"/>
-    <hyperlink ref="D13" r:id="rId25" xr:uid="{86799D4C-9EBB-4852-A37B-1283CDC5A2A3}"/>
-    <hyperlink ref="D14" r:id="rId26" xr:uid="{15269BD3-07B8-4D9A-A757-D211C4528151}"/>
-    <hyperlink ref="D15" r:id="rId27" xr:uid="{E2DAAAEC-34B3-4D69-9713-0BFFA08B1179}"/>
-    <hyperlink ref="D8" r:id="rId28" xr:uid="{A071696A-4C3C-4802-A6AD-4F1F923EBA3E}"/>
-    <hyperlink ref="D3" r:id="rId29" display="040-2023-R." xr:uid="{370D052E-12AE-4C70-BCDD-E1A12EAE1A20}"/>
-    <hyperlink ref="D7" r:id="rId30" xr:uid="{A19BC181-D8F6-482E-972F-F72186C434FA}"/>
-    <hyperlink ref="D10" r:id="rId31" display="699-2022-R." xr:uid="{C3EF312C-28D5-4003-A636-A10F5513ECD8}"/>
-    <hyperlink ref="D4" r:id="rId32" xr:uid="{CD1B72E8-BD1B-4B4A-97DA-DA11C998E6E7}"/>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{C9697095-1766-422E-8E8A-621CDD3123E1}"/>
+    <hyperlink ref="G5" r:id="rId2" display="mailto:icicyt@unac.edu.pe" xr:uid="{B8117E84-288D-499B-8CE5-488E72074DD1}"/>
+    <hyperlink ref="G7" r:id="rId3" display="mailto:patente.vri@unac.edu.pe" xr:uid="{BDDB343B-A69E-44FC-8E73-EEB71BAE9A5B}"/>
+    <hyperlink ref="G13" r:id="rId4" xr:uid="{22946BD3-D692-40B0-809C-E7DB73A40A98}"/>
+    <hyperlink ref="G15" r:id="rId5" xr:uid="{E4752CA4-0593-4604-A3B2-9ADDD1BF6F52}"/>
+    <hyperlink ref="F2" r:id="rId6" xr:uid="{28131854-6763-4AD4-ABF6-01AF978BC561}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{241EBBC3-A632-4F73-AC2E-8D3A4B7779DA}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{659DD1B1-9C72-44CF-8FEB-E04B578BF792}"/>
+    <hyperlink ref="F5" r:id="rId9" xr:uid="{15824760-2417-40D8-A2A7-E37273DFBF63}"/>
+    <hyperlink ref="F6" r:id="rId10" xr:uid="{F0888115-C230-424A-87EF-2FD8540B4326}"/>
+    <hyperlink ref="F7" r:id="rId11" xr:uid="{0FA4607F-FC7A-4FD7-909C-88ED6A7DDE0F}"/>
+    <hyperlink ref="F8" r:id="rId12" xr:uid="{297FCB15-E25A-4413-B58D-A6E205316AEE}"/>
+    <hyperlink ref="F9" r:id="rId13" xr:uid="{D24FB577-7715-4368-9356-1435A3FCEE51}"/>
+    <hyperlink ref="F11" r:id="rId14" xr:uid="{863F4E69-0CB8-41C8-A828-7356D6D35ED6}"/>
+    <hyperlink ref="F12" r:id="rId15" xr:uid="{0867AFEA-10C4-4070-9C0E-2B93BC788E2C}"/>
+    <hyperlink ref="F13" r:id="rId16" xr:uid="{6A1F4A7C-0043-4710-9F0E-20D71FC44AAA}"/>
+    <hyperlink ref="F14" r:id="rId17" xr:uid="{55F505A0-33C4-41C2-BDD8-6829C0A0A5C1}"/>
+    <hyperlink ref="F15" r:id="rId18" xr:uid="{888098CC-8A0C-43FC-B97C-D6E16B8CF341}"/>
+    <hyperlink ref="D2" r:id="rId19" xr:uid="{0E9F013E-A314-49E4-96B0-8EB93B87EC3C}"/>
+    <hyperlink ref="D5" r:id="rId20" xr:uid="{DA677EBB-BB72-4292-A67E-2C67C2F5DC36}"/>
+    <hyperlink ref="D6" r:id="rId21" xr:uid="{9D842A99-74E6-4D1F-8CD4-C55407B965C3}"/>
+    <hyperlink ref="D9" r:id="rId22" xr:uid="{E0CDCE49-6129-43EA-BADB-3844E10F23ED}"/>
+    <hyperlink ref="D11" r:id="rId23" xr:uid="{47327E52-1247-4FE7-B203-F4B346AB96EB}"/>
+    <hyperlink ref="D12" r:id="rId24" xr:uid="{34AB18B5-6C13-4762-AFDF-B600044622B4}"/>
+    <hyperlink ref="D13" r:id="rId25" xr:uid="{9A7547EB-6E35-4F90-A596-EDE36EFA3DCB}"/>
+    <hyperlink ref="D14" r:id="rId26" xr:uid="{A766104D-4C35-4C31-A886-88FF2B8F5498}"/>
+    <hyperlink ref="D15" r:id="rId27" xr:uid="{5629A315-117D-4A94-86A3-3EE3D93DA212}"/>
+    <hyperlink ref="D8" r:id="rId28" xr:uid="{E6021C4C-D895-4B3D-A8AF-D934B7A56818}"/>
+    <hyperlink ref="D7" r:id="rId29" xr:uid="{0FC1C2C7-8E3C-46C2-B8F3-6C3BF68BA388}"/>
+    <hyperlink ref="D10" r:id="rId30" display="699-2022-R." xr:uid="{119522DD-A844-443E-B93B-C4D8B7F96277}"/>
+    <hyperlink ref="D4" r:id="rId31" xr:uid="{A3407194-6084-4D7B-9F11-59D00BEF953C}"/>
+    <hyperlink ref="D3" r:id="rId32" xr:uid="{F7F012C7-4D01-48BA-A50A-4103AF2458A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
